--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_5_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_5_sawtooth_01_.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.93000000000046</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3208437175538131</v>
+        <v>0.03712376461636779</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3208437175538131</v>
+        <v>0.03712376461636779</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>4.542389288173866</v>
+        <v>7.778967120477413</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-3.0925034593843517, 12.177282035732084]</t>
+          <t>[0.23188970232397388, 15.326044538630851]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.237075850723558</v>
+        <v>0.04363770202042239</v>
       </c>
       <c r="O2" t="n">
-        <v>0.237075850723558</v>
+        <v>0.04363770202042239</v>
       </c>
       <c r="P2" t="n">
-        <v>-2.402579366709311</v>
+        <v>-1.761052938949233</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-5.541027282908123, 0.735868549489501]</t>
+          <t>[-3.107000542289004, -0.4151053356094625]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.1301115072849788</v>
+        <v>0.01149101867804903</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1301115072849788</v>
+        <v>0.01149101867804903</v>
       </c>
       <c r="T2" t="n">
-        <v>14.39240902484399</v>
+        <v>12.69971272682398</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[10.19207871819599, 18.59273933149198]</t>
+          <t>[8.423061006668952, 16.976364446979]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.427511109319823e-08</v>
+        <v>3.332180111836891e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>1.427511109319823e-08</v>
+        <v>3.332180111836891e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>9.532792792792968</v>
+        <v>7.284484484484658</v>
       </c>
       <c r="Y2" t="n">
-        <v>-2.919729729729783</v>
+        <v>1.717057057057098</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.98531531531572</v>
+        <v>12.85191191191222</v>
       </c>
     </row>
     <row r="3">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.93000000000046</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6445899406368354</v>
+        <v>0.044993535262566</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6445899406368354</v>
+        <v>0.044993535262566</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>3.698770525829888</v>
+        <v>7.566832182600196</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-6.303637444220888, 13.701178495880663]</t>
+          <t>[0.37733847425350575, 14.756325890946886]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.4602700965938453</v>
+        <v>0.0395706370820923</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4602700965938453</v>
+        <v>0.0395706370820923</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.691895206679543</v>
+        <v>-1.534631846798618</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-5.824053648096394, 0.44026323473730855]</t>
+          <t>[-2.792526803190927, -0.2767368904063088]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.09030470901839793</v>
+        <v>0.01792158802515109</v>
       </c>
       <c r="S3" t="n">
-        <v>0.09030470901839793</v>
+        <v>0.01792158802515109</v>
       </c>
       <c r="T3" t="n">
-        <v>16.04945464235868</v>
+        <v>11.97978420797114</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[10.55750261451336, 21.541406670204005]</t>
+          <t>[7.631590761899311, 16.32797765404296]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.609964510127185e-07</v>
+        <v>1.450744481878985e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>4.609964510127185e-07</v>
+        <v>1.450744481878985e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>10.68072072072092</v>
+        <v>6.347907907908063</v>
       </c>
       <c r="Y3" t="n">
-        <v>-1.746846846846882</v>
+        <v>1.144704704704736</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.10828828828872</v>
+        <v>11.55111111111139</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.93000000000046</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2104385020028159</v>
+        <v>0.2058196928931515</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2104385020028159</v>
+        <v>0.2058196928931515</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>5.550536814842891</v>
+        <v>5.413899366762892</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-2.807297764033951, 13.908371393719733]</t>
+          <t>[-1.8727430376676892, 12.700541771193473]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1877515484089654</v>
+        <v>0.1415157410291639</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1877515484089654</v>
+        <v>0.1415157410291639</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.465474114528927</v>
+        <v>3.050395269251351</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-5.597632555945777, 0.6666843268879239]</t>
+          <t>[0.018868424345884982, 6.081922114156817]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.1198789167541818</v>
+        <v>0.04864983252913135</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1198789167541818</v>
+        <v>0.04864983252913135</v>
       </c>
       <c r="T4" t="n">
-        <v>12.33141979453081</v>
+        <v>11.46431771223958</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[7.978246404135891, 16.68459318492574]</t>
+          <t>[7.326541862914507, 15.602093561564661]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>8.528765327309173e-07</v>
+        <v>1.304665411261396e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>8.528765327309173e-07</v>
+        <v>1.304665411261396e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>9.782342342342522</v>
+        <v>13.37223223223255</v>
       </c>
       <c r="Y4" t="n">
-        <v>-2.645225225225273</v>
+        <v>0.8325125125125297</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.20990990991032</v>
+        <v>25.91195195195257</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.93000000000046</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4555147630579289</v>
+        <v>0.3713251281015377</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4555147630579289</v>
+        <v>0.3713251281015377</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>5.107006146811601</v>
+        <v>4.277322804433428</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-4.745354517484637, 14.95936681110784]</t>
+          <t>[-3.973516193680373, 12.52816180254723]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.3020534273796667</v>
+        <v>0.3020008087496457</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3020534273796667</v>
+        <v>0.3020008087496457</v>
       </c>
       <c r="P5" t="n">
-        <v>3.113290017070967</v>
+        <v>-2.138421425866927</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.012578949563923025, 6.239158983705856]</t>
+          <t>[-5.220264069028085, 0.9434212172942313]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.05089012617975741</v>
+        <v>0.169103310259761</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05089012617975741</v>
+        <v>0.169103310259761</v>
       </c>
       <c r="T5" t="n">
-        <v>14.53582103610889</v>
+        <v>11.08486832258084</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[8.894420150790499, 20.177221921427282]</t>
+          <t>[6.82172856470093, 15.348008080460747]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.880607443524809e-06</v>
+        <v>4.162458135947844e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>4.880607443524809e-06</v>
+        <v>4.162458135947844e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>12.57729729729753</v>
+        <v>8.845445445445659</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1746846846846868</v>
+        <v>-3.902402402402494</v>
       </c>
       <c r="Z5" t="n">
-        <v>24.97990990991037</v>
+        <v>21.59329329329381</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.93000000000046</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2535758021651213</v>
+        <v>0.04055194411036545</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2535758021651213</v>
+        <v>0.04055194411036545</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>5.898168799987428</v>
+        <v>8.368638530131163</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-3.2152421304469696, 15.011579730421825]</t>
+          <t>[-0.7734992947367658, 17.51077635499909]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.1990267446246923</v>
+        <v>0.07181866941265302</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1990267446246923</v>
+        <v>0.07181866941265302</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.918316298830158</v>
+        <v>2.358553043235581</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-5.968711568081509, 0.1320789704211922]</t>
+          <t>[-0.6037895790683088, 5.320895665539471]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.06032132373867971</v>
+        <v>0.115802153556823</v>
       </c>
       <c r="S6" t="n">
-        <v>0.06032132373867971</v>
+        <v>0.115802153556823</v>
       </c>
       <c r="T6" t="n">
-        <v>13.23038015662512</v>
+        <v>12.99385013135113</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[8.336247022602027, 18.12451329064822]</t>
+          <t>[8.32502541252152, 17.66267485018074]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.065775992043939e-06</v>
+        <v>1.198086480469485e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>2.065775992043939e-06</v>
+        <v>1.198086480469485e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>11.57909909909931</v>
+        <v>16.23399399399438</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.5240540540540621</v>
+        <v>3.98045045045054</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.68225225225269</v>
+        <v>28.48753753753822</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.97000000000046</v>
+        <v>23.55000000000024</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3758957032205648</v>
+        <v>0.04446429218528991</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3758957032205648</v>
+        <v>0.04446429218528991</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>5.146878714873683</v>
+        <v>7.856797919509274</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-4.099748913542189, 14.393506343289555]</t>
+          <t>[0.7636205515515488, 14.949975287467]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.2681947514229761</v>
+        <v>0.03071401753043679</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2681947514229761</v>
+        <v>0.03071401753043679</v>
       </c>
       <c r="P7" t="n">
-        <v>3.012658420559581</v>
+        <v>1.490605523324887</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.11950002085727007, 6.144816861976432]</t>
+          <t>[0.19497371824080822, 2.7862373284089657]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.05900584025663069</v>
+        <v>0.02510039802051223</v>
       </c>
       <c r="S7" t="n">
-        <v>0.05900584025663069</v>
+        <v>0.02510039802051223</v>
       </c>
       <c r="T7" t="n">
-        <v>15.09389464600935</v>
+        <v>12.71669815839536</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[9.999080833079118, 20.18870845893958]</t>
+          <t>[8.42618663271985, 17.007209684070872]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.495337743686378e-07</v>
+        <v>3.463919420187977e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>3.495337743686378e-07</v>
+        <v>3.463919420187977e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>12.99739739739764</v>
+        <v>17.96306306306325</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.5498898898899007</v>
+        <v>13.10690690690704</v>
       </c>
       <c r="Z7" t="n">
-        <v>25.44490490490538</v>
+        <v>22.81921921921946</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.97000000000046</v>
+        <v>23.55000000000024</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4174546680426511</v>
+        <v>0.7681409970024018</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4174546680426511</v>
+        <v>0.7681409970024018</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4.138823223799586</v>
+        <v>2.312941079217987</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-3.8707033217198807, 12.148349769319054]</t>
+          <t>[-6.363647563170915, 10.989529721606889]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.3035452705249322</v>
+        <v>0.5939781898930474</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3035452705249322</v>
+        <v>0.5939781898930474</v>
       </c>
       <c r="P8" t="n">
-        <v>1.515763422452733</v>
+        <v>1.000026490331886</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.534631846798618, 4.566158691704084]</t>
+          <t>[-2.1384214258669267, 4.138474406530699]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.3222641511048021</v>
+        <v>0.5242793640232137</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3222641511048021</v>
+        <v>0.5242793640232137</v>
       </c>
       <c r="T8" t="n">
-        <v>14.47643348071027</v>
+        <v>12.87231960794077</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[9.975523432488632, 18.977343528931907]</t>
+          <t>[8.37369431078687, 17.370944905094678]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>6.07818737563548e-08</v>
+        <v>7.007503237677071e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>6.07818737563548e-08</v>
+        <v>7.007503237677071e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>18.94620620620656</v>
+        <v>19.801801801802</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.823633633633762</v>
+        <v>8.038588588588668</v>
       </c>
       <c r="Z8" t="n">
-        <v>31.06877877877936</v>
+        <v>31.56501501501534</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.97000000000046</v>
+        <v>23.55000000000024</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1220564254351106</v>
+        <v>0.3485919317534392</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1220564254351106</v>
+        <v>0.3485919317534392</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>7.585348736461029</v>
+        <v>4.578987231014357</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-1.9278251038564633, 17.09852257677852]</t>
+          <t>[-3.8555931284430356, 13.013567590471748]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1152806124069372</v>
+        <v>0.2800275023997014</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1152806124069372</v>
+        <v>0.2800275023997014</v>
       </c>
       <c r="P9" t="n">
-        <v>1.729605565039425</v>
+        <v>2.018921405009657</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.05660527303765406, 3.4026058570411966]</t>
+          <t>[-1.1195265111891555, 5.157369321208469]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.04303512741114246</v>
+        <v>0.2017044520300906</v>
       </c>
       <c r="S9" t="n">
-        <v>0.04303512741114246</v>
+        <v>0.2017044520300906</v>
       </c>
       <c r="T9" t="n">
-        <v>17.59075462947704</v>
+        <v>12.72454585025878</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[12.3362984124607, 22.84521084649338]</t>
+          <t>[8.312381389874922, 17.136710310642634]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.455094816333769e-08</v>
+        <v>6.001385852716368e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>2.455094816333769e-08</v>
+        <v>6.001385852716368e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>18.09637637637671</v>
+        <v>15.98288288288305</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.44770770770792</v>
+        <v>4.219669669669713</v>
       </c>
       <c r="Z9" t="n">
-        <v>24.7450450450455</v>
+        <v>27.74609609609638</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.97000000000046</v>
+        <v>23.55000000000024</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1985662577466283</v>
+        <v>0.02512234308597927</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1985662577466283</v>
+        <v>0.02512234308597927</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>6.157596624524488</v>
+        <v>7.965629564539131</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-3.2623367627556368, 15.577530011804612]</t>
+          <t>[0.658504112449755, 15.272755016628507]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.194647876994851</v>
+        <v>0.03331727353495983</v>
       </c>
       <c r="O10" t="n">
-        <v>0.194647876994851</v>
+        <v>0.03331727353495983</v>
       </c>
       <c r="P10" t="n">
-        <v>2.408868841491272</v>
+        <v>1.817658211986887</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.7170001251436169, 5.534737808126161]</t>
+          <t>[0.5723422051585008, 3.062974218815274]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.1276398755852937</v>
+        <v>0.005169043508775673</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1276398755852937</v>
+        <v>0.005169043508775673</v>
       </c>
       <c r="T10" t="n">
-        <v>10.45396651892802</v>
+        <v>10.78575910353891</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[5.63361622740617, 15.27431681044987]</t>
+          <t>[6.812249470368755, 14.759268736709068]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>7.285202078533004e-05</v>
+        <v>1.915240951610997e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>7.285202078533004e-05</v>
+        <v>1.915240951610997e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>15.39691691691721</v>
+        <v>16.73723723723741</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.974404404404464</v>
+        <v>12.06966966966979</v>
       </c>
       <c r="Z10" t="n">
-        <v>27.81942942942995</v>
+        <v>21.40480480480502</v>
       </c>
     </row>
     <row r="11">
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.97000000000046</v>
+        <v>23.55000000000024</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0257615803854192</v>
+        <v>0.1257091024971805</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0257615803854192</v>
+        <v>0.1257091024971805</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>10.00163367054912</v>
+        <v>6.407620162834623</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[0.8711352541630504, 19.132132086935187]</t>
+          <t>[-1.7846992983654557, 14.5999396240347]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.03251199904814484</v>
+        <v>0.1221853242373259</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03251199904814484</v>
+        <v>0.1221853242373259</v>
       </c>
       <c r="P11" t="n">
-        <v>2.094395102393195</v>
+        <v>1.968605606753965</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.7232895999255771, 3.4655006048608126]</t>
+          <t>[-0.9811580659860013, 4.91836927949393]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.003556848325823481</v>
+        <v>0.185632023898666</v>
       </c>
       <c r="S11" t="n">
-        <v>0.003556848325823481</v>
+        <v>0.185632023898666</v>
       </c>
       <c r="T11" t="n">
-        <v>13.8451977211178</v>
+        <v>12.17077887949602</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[8.706818366256346, 18.983577075979248]</t>
+          <t>[7.823375550851342, 16.518182208140704]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.194082665329944e-06</v>
+        <v>1.07059732701309e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>2.194082665329944e-06</v>
+        <v>1.07059732701309e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>16.64666666666698</v>
+        <v>16.17147147147164</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.19775775775797</v>
+        <v>5.115465465465517</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.09557557557599</v>
+        <v>27.22747747747776</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.97000000000046</v>
+        <v>23.55000000000024</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.08018559902449462</v>
+        <v>0.3971275301278157</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08018559902449462</v>
+        <v>0.3971275301278157</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>7.037414312920672</v>
+        <v>4.324393697636097</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-1.14075090737889, 15.215579533220232]</t>
+          <t>[-4.405201135744912, 13.053988531017106]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.08991541232032607</v>
+        <v>0.3237454853844113</v>
       </c>
       <c r="O12" t="n">
-        <v>0.08991541232032607</v>
+        <v>0.3237454853844113</v>
       </c>
       <c r="P12" t="n">
-        <v>1.17613178422681</v>
+        <v>2.232763547596349</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.6100790538502707, 2.96234262230389]</t>
+          <t>[-0.9056843686024632, 5.371211463795161]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.1914695828879354</v>
+        <v>0.1588034606640034</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1914695828879354</v>
+        <v>0.1588034606640034</v>
       </c>
       <c r="T12" t="n">
-        <v>13.34278723058985</v>
+        <v>9.799262733204607</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[8.970966815391993, 17.714607645787712]</t>
+          <t>[5.325861542419984, 14.27266392398923]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.888282716855372e-07</v>
+        <v>6.324294189830049e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>1.888282716855372e-07</v>
+        <v>6.324294189830049e-05</v>
       </c>
       <c r="X12" t="n">
-        <v>20.29593593593631</v>
+        <v>15.18138138138154</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.1973573573576</v>
+        <v>3.418168168168206</v>
       </c>
       <c r="Z12" t="n">
-        <v>27.39451451451503</v>
+        <v>26.94459459459488</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_5_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_5_sawtooth_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03712376461636779</v>
+        <v>0.00451465158495834</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03712376461636779</v>
+        <v>0.00451465158495834</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>7.778967120477413</v>
+        <v>11.13066277792755</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0.23188970232397388, 15.326044538630851]</t>
+          <t>[2.2101108209967, 20.0512147348584]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.04363770202042239</v>
+        <v>0.01561720673731415</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04363770202042239</v>
+        <v>0.01561720673731415</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.761052938949233</v>
+        <v>-1.119526511189155</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-3.107000542289004, -0.4151053356094625]</t>
+          <t>[-1.9874740310998487, -0.2515789912784623]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.01149101867804903</v>
+        <v>0.0126327147624119</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01149101867804903</v>
+        <v>0.0126327147624119</v>
       </c>
       <c r="T2" t="n">
-        <v>12.69971272682398</v>
+        <v>15.18545240491853</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[8.423061006668952, 16.976364446979]</t>
+          <t>[10.46619276081892, 19.904712049018137]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.332180111836891e-07</v>
+        <v>6.018645937189149e-08</v>
       </c>
       <c r="W2" t="n">
-        <v>3.332180111836891e-07</v>
+        <v>6.018645937189149e-08</v>
       </c>
       <c r="X2" t="n">
-        <v>7.284484484484658</v>
+        <v>4.60234234234245</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.717057057057098</v>
+        <v>1.034234234234261</v>
       </c>
       <c r="Z2" t="n">
-        <v>12.85191191191222</v>
+        <v>8.170450450450637</v>
       </c>
     </row>
     <row r="3">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.99000000000062</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.044993535262566</v>
+        <v>0.3187752325255349</v>
       </c>
       <c r="I3" t="n">
-        <v>0.044993535262566</v>
+        <v>0.3187752325255349</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>7.566832182600196</v>
+        <v>5.761653274918478</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[0.37733847425350575, 14.756325890946886]</t>
+          <t>[-4.617145894486743, 16.1404524443237]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0395706370820923</v>
+        <v>0.2694566737383237</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0395706370820923</v>
+        <v>0.2694566737383237</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.534631846798618</v>
+        <v>-1.861684535460618</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-2.792526803190927, -0.2767368904063088]</t>
+          <t>[-4.9623956029676615, 1.2390265320464247]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.01792158802515109</v>
+        <v>0.2328708502235739</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01792158802515109</v>
+        <v>0.2328708502235739</v>
       </c>
       <c r="T3" t="n">
-        <v>11.97978420797114</v>
+        <v>13.49249609720139</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[7.631590761899311, 16.32797765404296]</t>
+          <t>[8.030131104987582, 18.954861089415196]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.450744481878985e-06</v>
+        <v>9.997090581359558e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>1.450744481878985e-06</v>
+        <v>9.997090581359558e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>6.347907907908063</v>
+        <v>7.653333333333514</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.144704704704736</v>
+        <v>-5.093603603603718</v>
       </c>
       <c r="Z3" t="n">
-        <v>11.55111111111139</v>
+        <v>20.40027027027075</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.99000000000062</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2058196928931515</v>
+        <v>0.293243840351911</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2058196928931515</v>
+        <v>0.293243840351911</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>5.413899366762892</v>
+        <v>5.644002655586325</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-1.8727430376676892, 12.700541771193473]</t>
+          <t>[-3.947839213298833, 15.235844524471483]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1415157410291639</v>
+        <v>0.2421860897097303</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1415157410291639</v>
+        <v>0.2421860897097303</v>
       </c>
       <c r="P4" t="n">
-        <v>3.050395269251351</v>
+        <v>-2.515789912784619</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.018868424345884982, 6.081922114156817]</t>
+          <t>[-5.654237828983431, 0.6226580034141929]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.04864983252913135</v>
+        <v>0.1134075699189014</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04864983252913135</v>
+        <v>0.1134075699189014</v>
       </c>
       <c r="T4" t="n">
-        <v>11.46431771223958</v>
+        <v>12.80659434968957</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[7.326541862914507, 15.602093561564661]</t>
+          <t>[7.88883786890643, 17.72435083047271]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.304665411261396e-06</v>
+        <v>4.051562748852433e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>1.304665411261396e-06</v>
+        <v>4.051562748852433e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>13.37223223223255</v>
+        <v>10.34234234234258</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.8325125125125297</v>
+        <v>-2.559729729729789</v>
       </c>
       <c r="Z4" t="n">
-        <v>25.91195195195257</v>
+        <v>23.24441441441495</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.99000000000062</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3713251281015377</v>
+        <v>0.1558538757898884</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3713251281015377</v>
+        <v>0.1558538757898884</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>4.277322804433428</v>
+        <v>6.941755669906909</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-3.973516193680373, 12.52816180254723]</t>
+          <t>[-2.5722654130537705, 16.45577675286759]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.3020008087496457</v>
+        <v>0.1486384729330412</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3020008087496457</v>
+        <v>0.1486384729330412</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.138421425866927</v>
+        <v>-2.100684577175157</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-5.220264069028085, 0.9434212172942313]</t>
+          <t>[-5.16365879599043, 0.9622896416401163]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.169103310259761</v>
+        <v>0.1739965928563731</v>
       </c>
       <c r="S5" t="n">
-        <v>0.169103310259761</v>
+        <v>0.1739965928563731</v>
       </c>
       <c r="T5" t="n">
-        <v>11.08486832258084</v>
+        <v>13.61978959138836</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.82172856470093, 15.348008080460747]</t>
+          <t>[8.598674293385056, 18.640904889391663]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.162458135947844e-06</v>
+        <v>1.940386011423101e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>4.162458135947844e-06</v>
+        <v>1.940386011423101e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>8.845445445445659</v>
+        <v>8.635855855856054</v>
       </c>
       <c r="Y5" t="n">
-        <v>-3.902402402402494</v>
+        <v>-3.955945945946036</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.59329329329381</v>
+        <v>21.22765765765814</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.99000000000062</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04055194411036545</v>
+        <v>0.6839785126911193</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04055194411036545</v>
+        <v>0.6839785126911193</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>8.368638530131163</v>
+        <v>2.95217698467571</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-0.7734992947367658, 17.51077635499909]</t>
+          <t>[-5.727574818735723, 11.631928788087142]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.07181866941265302</v>
+        <v>0.4968314411876982</v>
       </c>
       <c r="O6" t="n">
-        <v>0.07181866941265302</v>
+        <v>0.4968314411876982</v>
       </c>
       <c r="P6" t="n">
-        <v>2.358553043235581</v>
+        <v>-2.754789954499158</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.6037895790683088, 5.320895665539471]</t>
+          <t>[-5.893237870697971, 0.3836579616996545]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.115802153556823</v>
+        <v>0.08385891347675312</v>
       </c>
       <c r="S6" t="n">
-        <v>0.115802153556823</v>
+        <v>0.08385891347675312</v>
       </c>
       <c r="T6" t="n">
-        <v>12.99385013135113</v>
+        <v>14.31937139858284</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[8.32502541252152, 17.66267485018074]</t>
+          <t>[9.698654283568082, 18.9400885135976]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.198086480469485e-06</v>
+        <v>1.366065358610058e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>1.198086480469485e-06</v>
+        <v>1.366065358610058e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>16.23399399399438</v>
+        <v>11.32486486486513</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.98045045045054</v>
+        <v>-1.577207207207243</v>
       </c>
       <c r="Z6" t="n">
-        <v>28.48753753753822</v>
+        <v>24.2269369369375</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.55000000000024</v>
+        <v>25.13000000000049</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04446429218528991</v>
+        <v>0.4040361210505484</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04446429218528991</v>
+        <v>0.4040361210505484</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>7.856797919509274</v>
+        <v>4.984660268611202</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[0.7636205515515488, 14.949975287467]</t>
+          <t>[-5.252213422322617, 15.221533959545022]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.03071401753043679</v>
+        <v>0.3319688505543241</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03071401753043679</v>
+        <v>0.3319688505543241</v>
       </c>
       <c r="P7" t="n">
-        <v>1.490605523324887</v>
+        <v>2.257921446724196</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.19497371824080822, 2.7862373284089657]</t>
+          <t>[-0.8427896207828471, 5.358632514231239]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.02510039802051223</v>
+        <v>0.1494228158207118</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02510039802051223</v>
+        <v>0.1494228158207118</v>
       </c>
       <c r="T7" t="n">
-        <v>12.71669815839536</v>
+        <v>14.18205349713964</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[8.42618663271985, 17.007209684070872]</t>
+          <t>[8.885515795213035, 19.478591199066244]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.463919420187977e-07</v>
+        <v>2.460878961496604e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>3.463919420187977e-07</v>
+        <v>2.460878961496604e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>17.96306306306325</v>
+        <v>16.09929929929961</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.10690690690704</v>
+        <v>3.697807807807877</v>
       </c>
       <c r="Z7" t="n">
-        <v>22.81921921921946</v>
+        <v>28.50079079079134</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.55000000000024</v>
+        <v>25.13000000000049</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7681409970024018</v>
+        <v>0.462998018597732</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7681409970024018</v>
+        <v>0.462998018597732</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>2.312941079217987</v>
+        <v>3.898321811439208</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-6.363647563170915, 10.989529721606889]</t>
+          <t>[-4.693140695787387, 12.489784318665802]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.5939781898930474</v>
+        <v>0.3656472367933636</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5939781898930474</v>
+        <v>0.3656472367933636</v>
       </c>
       <c r="P8" t="n">
-        <v>1.000026490331886</v>
+        <v>2.446605690183042</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.1384214258669267, 4.138474406530699]</t>
+          <t>[-0.69184222601577, 5.585053606381854]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.5242793640232137</v>
+        <v>0.1233945998360459</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5242793640232137</v>
+        <v>0.1233945998360459</v>
       </c>
       <c r="T8" t="n">
-        <v>12.87231960794077</v>
+        <v>13.46939061792173</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[8.37369431078687, 17.370944905094678]</t>
+          <t>[9.005963660884952, 17.932817574958506]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>7.007503237677071e-07</v>
+        <v>2.391353353115022e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>7.007503237677071e-07</v>
+        <v>2.391353353115022e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>19.801801801802</v>
+        <v>15.34464464464494</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.038588588588668</v>
+        <v>2.792222222222277</v>
       </c>
       <c r="Z8" t="n">
-        <v>31.56501501501534</v>
+        <v>27.89706706706761</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.55000000000024</v>
+        <v>25.13000000000049</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3485919317534392</v>
+        <v>0.03980359108239806</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3485919317534392</v>
+        <v>0.03980359108239806</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>4.578987231014357</v>
+        <v>7.913108842580074</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-3.8555931284430356, 13.013567590471748]</t>
+          <t>[0.13832489040763996, 15.687892794752509]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.2800275023997014</v>
+        <v>0.0462244422435556</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2800275023997014</v>
+        <v>0.0462244422435556</v>
       </c>
       <c r="P9" t="n">
-        <v>2.018921405009657</v>
+        <v>1.918289808498272</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.1195265111891555, 5.157369321208469]</t>
+          <t>[0.37107901213573147, 3.4655006048608135]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.2017044520300906</v>
+        <v>0.01624546974569152</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2017044520300906</v>
+        <v>0.01624546974569152</v>
       </c>
       <c r="T9" t="n">
-        <v>12.72454585025878</v>
+        <v>13.03222699588335</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[8.312381389874922, 17.136710310642634]</t>
+          <t>[8.648000193467206, 17.416453798299486]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>6.001385852716368e-07</v>
+        <v>3.264527621560376e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>6.001385852716368e-07</v>
+        <v>3.264527621560376e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>15.98288288288305</v>
+        <v>17.45767767767802</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.219669669669713</v>
+        <v>11.26950950950973</v>
       </c>
       <c r="Z9" t="n">
-        <v>27.74609609609638</v>
+        <v>23.64584584584631</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.55000000000024</v>
+        <v>25.13000000000049</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02512234308597927</v>
+        <v>0.07327748267880951</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02512234308597927</v>
+        <v>0.07327748267880951</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>7.965629564539131</v>
+        <v>5.81238256241505</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[0.658504112449755, 15.272755016628507]</t>
+          <t>[-0.9548844248127111, 12.579649549642811]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.03331727353495983</v>
+        <v>0.09050123719000602</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03331727353495983</v>
+        <v>0.09050123719000602</v>
       </c>
       <c r="P10" t="n">
-        <v>1.817658211986887</v>
+        <v>1.13839493553504</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.5723422051585008, 3.062974218815274]</t>
+          <t>[-0.6100790538502698, 2.8868689249203507]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.005169043508775673</v>
+        <v>0.1963945543285162</v>
       </c>
       <c r="S10" t="n">
-        <v>0.005169043508775673</v>
+        <v>0.1963945543285162</v>
       </c>
       <c r="T10" t="n">
-        <v>10.78575910353891</v>
+        <v>10.61968366093634</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[6.812249470368755, 14.759268736709068]</t>
+          <t>[7.074249759908141, 14.165117561964536]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.915240951610997e-06</v>
+        <v>2.790518240924911e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>1.915240951610997e-06</v>
+        <v>2.790518240924911e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>16.73723723723741</v>
+        <v>20.57691691691732</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.06966966966979</v>
+        <v>13.58378378378405</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.40480480480502</v>
+        <v>27.57005005005059</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.55000000000024</v>
+        <v>25.13000000000049</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1257091024971805</v>
+        <v>0.07263287311984012</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1257091024971805</v>
+        <v>0.07263287311984012</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>6.407620162834623</v>
+        <v>6.743916601386711</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-1.7846992983654557, 14.5999396240347]</t>
+          <t>[-0.5338607681368224, 14.021693970910244]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.1221853242373259</v>
+        <v>0.06851597322269565</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1221853242373259</v>
+        <v>0.06851597322269565</v>
       </c>
       <c r="P11" t="n">
-        <v>1.968605606753965</v>
+        <v>1.779921363295118</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.9811580659860013, 4.91836927949393]</t>
+          <t>[0.22013161736865428, 3.3397111092215823]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.185632023898666</v>
+        <v>0.02624180334097548</v>
       </c>
       <c r="S11" t="n">
-        <v>0.185632023898666</v>
+        <v>0.02624180334097548</v>
       </c>
       <c r="T11" t="n">
-        <v>12.17077887949602</v>
+        <v>14.51812108495333</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[7.823375550851342, 16.518182208140704]</t>
+          <t>[10.346451772415119, 18.68979039749154]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.07059732701309e-06</v>
+        <v>9.867260786222687e-09</v>
       </c>
       <c r="W11" t="n">
-        <v>1.07059732701309e-06</v>
+        <v>9.867260786222687e-09</v>
       </c>
       <c r="X11" t="n">
-        <v>16.17147147147164</v>
+        <v>18.01109109109144</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.115465465465517</v>
+        <v>11.77261261261284</v>
       </c>
       <c r="Z11" t="n">
-        <v>27.22747747747776</v>
+        <v>24.24956956957004</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.55000000000024</v>
+        <v>25.13000000000049</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3971275301278157</v>
+        <v>0.4856452058476828</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3971275301278157</v>
+        <v>0.4856452058476828</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>4.324393697636097</v>
+        <v>3.520634693548116</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-4.405201135744912, 13.053988531017106]</t>
+          <t>[-4.481332048330669, 11.522601435426902]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.3237454853844113</v>
+        <v>0.3802493113055818</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3237454853844113</v>
+        <v>0.3802493113055818</v>
       </c>
       <c r="P12" t="n">
-        <v>2.232763547596349</v>
+        <v>1.239026532046426</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.9056843686024632, 5.371211463795161]</t>
+          <t>[-1.8679740102425786, 4.34602707433543]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.1588034606640034</v>
+        <v>0.4260842193338474</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1588034606640034</v>
+        <v>0.4260842193338474</v>
       </c>
       <c r="T12" t="n">
-        <v>9.799262733204607</v>
+        <v>12.96016260059425</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[5.325861542419984, 14.27266392398923]</t>
+          <t>[8.77102303616585, 17.149302165022643]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>6.324294189830049e-05</v>
+        <v>1.415916144331675e-07</v>
       </c>
       <c r="W12" t="n">
-        <v>6.324294189830049e-05</v>
+        <v>1.415916144331675e-07</v>
       </c>
       <c r="X12" t="n">
-        <v>15.18138138138154</v>
+        <v>20.17443443443483</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.418168168168206</v>
+        <v>7.747787787787939</v>
       </c>
       <c r="Z12" t="n">
-        <v>26.94459459459488</v>
+        <v>32.60108108108172</v>
       </c>
     </row>
   </sheetData>
